--- a/2016년 수강료 8월/음악줄넘기 수강료.xlsx
+++ b/2016년 수강료 8월/음악줄넘기 수강료.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="555" windowWidth="19440" windowHeight="13500"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
   <si>
     <t>*주야</t>
   </si>
@@ -39,82 +39,99 @@
     <t>주간</t>
   </si>
   <si>
+    <t>시수</t>
+  </si>
+  <si>
+    <t>수강료</t>
+  </si>
+  <si>
+    <t>수용비</t>
+  </si>
+  <si>
+    <t>계</t>
+  </si>
+  <si>
     <t>김도헌</t>
   </si>
   <si>
     <t>김민찬</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>최하영</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>박상준</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>조슬빈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>조이정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>이영주</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>이채원</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>이수호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>김단우</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>채수현</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>강윤지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>홍윤수</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>허은제</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>원효인</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>박소연</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>*수강료</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>*수용비</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>박성준</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>채수련</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="General&quot;학년&quot;"/>
     <numFmt numFmtId="177" formatCode="General&quot;반&quot;"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,8 +141,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="굴림체"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="굴림체"/>
       <family val="3"/>
       <charset val="129"/>
@@ -175,40 +215,63 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -501,386 +564,538 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="11.125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="14.25" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="18" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="14.25" style="9" customWidth="1"/>
+    <col min="6" max="7" width="14.125" style="9" customWidth="1"/>
+    <col min="8" max="8" width="18" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="14">
+        <v>1</v>
+      </c>
+      <c r="C2" s="15">
+        <v>1</v>
+      </c>
+      <c r="D2" s="13">
+        <v>9</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="16">
+        <f>F$21</f>
+        <v>17500</v>
+      </c>
+      <c r="G2" s="16">
+        <f>F$22</f>
+        <v>1400</v>
+      </c>
+      <c r="H2" s="11"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="14">
+        <v>1</v>
+      </c>
+      <c r="C3" s="15">
+        <v>1</v>
+      </c>
+      <c r="D3" s="13">
+        <v>18</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="16">
+        <f>F$21</f>
+        <v>17500</v>
+      </c>
+      <c r="G3" s="16">
+        <f>F$22</f>
+        <v>1400</v>
+      </c>
+      <c r="H3" s="11"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="14">
+        <v>1</v>
+      </c>
+      <c r="C4" s="15">
+        <v>1</v>
+      </c>
+      <c r="D4" s="13">
+        <v>24</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="16">
+        <f>F$21</f>
+        <v>17500</v>
+      </c>
+      <c r="G4" s="16">
+        <f>F$22</f>
+        <v>1400</v>
+      </c>
+      <c r="H4" s="11"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="14">
+        <v>1</v>
+      </c>
+      <c r="C5" s="15">
+        <v>2</v>
+      </c>
+      <c r="D5" s="13">
+        <v>19</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="16">
+        <f>F$21</f>
+        <v>17500</v>
+      </c>
+      <c r="G5" s="16">
+        <f>F$22</f>
+        <v>1400</v>
+      </c>
+      <c r="H5" s="11"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="14">
+        <v>1</v>
+      </c>
+      <c r="C6" s="15">
+        <v>2</v>
+      </c>
+      <c r="D6" s="13">
+        <v>21</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="16">
+        <f>F$21</f>
+        <v>17500</v>
+      </c>
+      <c r="G6" s="16">
+        <f>F$22</f>
+        <v>1400</v>
+      </c>
+      <c r="H6" s="11"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="14">
+        <v>1</v>
+      </c>
+      <c r="C7" s="15">
+        <v>3</v>
+      </c>
+      <c r="D7" s="13">
+        <v>1</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="16">
+        <f>F$21</f>
+        <v>17500</v>
+      </c>
+      <c r="G7" s="16">
+        <f>F$22</f>
+        <v>1400</v>
+      </c>
+      <c r="H7" s="11"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="14">
+        <v>1</v>
+      </c>
+      <c r="C8" s="15">
+        <v>3</v>
+      </c>
+      <c r="D8" s="13">
+        <v>3</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="16">
+        <f>F$21</f>
+        <v>17500</v>
+      </c>
+      <c r="G8" s="16">
+        <f>F$22</f>
+        <v>1400</v>
+      </c>
+      <c r="H8" s="11"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="14">
+        <v>1</v>
+      </c>
+      <c r="C9" s="15">
+        <v>3</v>
+      </c>
+      <c r="D9" s="13">
+        <v>13</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="16">
+        <f>F$21</f>
+        <v>17500</v>
+      </c>
+      <c r="G9" s="16">
+        <f>F$22</f>
+        <v>1400</v>
+      </c>
+      <c r="H9" s="11"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="14">
+        <v>1</v>
+      </c>
+      <c r="C10" s="15">
+        <v>3</v>
+      </c>
+      <c r="D10" s="13">
+        <v>17</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="16">
+        <f>F$21</f>
+        <v>17500</v>
+      </c>
+      <c r="G10" s="16">
+        <f>F$22</f>
+        <v>1400</v>
+      </c>
+      <c r="H10" s="11"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="14">
+        <v>1</v>
+      </c>
+      <c r="C11" s="15">
+        <v>3</v>
+      </c>
+      <c r="D11" s="13">
+        <v>19</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="16">
+        <f>F$21</f>
+        <v>17500</v>
+      </c>
+      <c r="G11" s="16">
+        <f>F$22</f>
+        <v>1400</v>
+      </c>
+      <c r="H11" s="11"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="14">
+        <v>1</v>
+      </c>
+      <c r="C12" s="15">
+        <v>5</v>
+      </c>
+      <c r="D12" s="13">
+        <v>25</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="16">
+        <f>F$21</f>
+        <v>17500</v>
+      </c>
+      <c r="G12" s="16">
+        <f>F$22</f>
+        <v>1400</v>
+      </c>
+      <c r="H12" s="11"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="14">
+        <v>2</v>
+      </c>
+      <c r="C13" s="15">
+        <v>1</v>
+      </c>
+      <c r="D13" s="13">
+        <v>17</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="16">
+        <f>F$21</f>
+        <v>17500</v>
+      </c>
+      <c r="G13" s="16">
+        <f>F$22</f>
+        <v>1400</v>
+      </c>
+      <c r="H13" s="11"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="14">
+        <v>2</v>
+      </c>
+      <c r="C14" s="15">
+        <v>5</v>
+      </c>
+      <c r="D14" s="13">
+        <v>26</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="16">
+        <f>F$21</f>
+        <v>17500</v>
+      </c>
+      <c r="G14" s="16">
+        <f>F$22</f>
+        <v>1400</v>
+      </c>
+      <c r="H14" s="11"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="14">
+        <v>3</v>
+      </c>
+      <c r="C15" s="15">
+        <v>1</v>
+      </c>
+      <c r="D15" s="13">
+        <v>19</v>
+      </c>
+      <c r="E15" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="7">
-        <v>1</v>
-      </c>
-      <c r="C2" s="8">
-        <v>1</v>
-      </c>
-      <c r="D2" s="6">
+      <c r="F15" s="16">
+        <f>F$21</f>
+        <v>17500</v>
+      </c>
+      <c r="G15" s="16">
+        <f>F$22</f>
+        <v>1400</v>
+      </c>
+      <c r="H15" s="11"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="14">
+        <v>3</v>
+      </c>
+      <c r="C16" s="15">
+        <v>2</v>
+      </c>
+      <c r="D16" s="13">
+        <v>11</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="16">
+        <f>F$21</f>
+        <v>17500</v>
+      </c>
+      <c r="G16" s="16">
+        <f>F$22</f>
+        <v>1400</v>
+      </c>
+      <c r="H16" s="11"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="14">
+        <v>3</v>
+      </c>
+      <c r="C17" s="15">
+        <v>6</v>
+      </c>
+      <c r="D17" s="13">
+        <v>7</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="16">
+        <f>F$21</f>
+        <v>17500</v>
+      </c>
+      <c r="G17" s="16">
+        <f>F$22</f>
+        <v>1400</v>
+      </c>
+      <c r="H17" s="11"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="8"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="C20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="1">
+        <v>35000</v>
+      </c>
+      <c r="C21" s="2">
+        <v>8</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="3">
+        <f>B21*C21</f>
+        <v>280000</v>
+      </c>
+      <c r="F21" s="3">
+        <f>ROUNDUP(E21/16,-1)</f>
+        <v>17500</v>
+      </c>
+      <c r="G21" s="3"/>
+      <c r="H21" s="10"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="9">
-        <v>1400</v>
-      </c>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="7">
-        <v>1</v>
-      </c>
-      <c r="C3" s="8">
-        <v>1</v>
-      </c>
-      <c r="D3" s="6">
-        <v>18</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="B22" s="3">
+        <f>E21</f>
+        <v>280000</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="E22" s="3">
+        <f>B22*C22</f>
+        <v>22400</v>
+      </c>
+      <c r="F22" s="3">
+        <f>ROUNDUP(E22/16,-1)</f>
+        <v>1400</v>
+      </c>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="9">
-        <v>1400</v>
-      </c>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="7">
-        <v>1</v>
-      </c>
-      <c r="C4" s="8">
-        <v>1</v>
-      </c>
-      <c r="D4" s="6">
-        <v>24</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="9">
-        <v>1400</v>
-      </c>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="7">
-        <v>1</v>
-      </c>
-      <c r="C5" s="8">
-        <v>2</v>
-      </c>
-      <c r="D5" s="6">
-        <v>19</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="9">
-        <v>1400</v>
-      </c>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="7">
-        <v>1</v>
-      </c>
-      <c r="C6" s="8">
-        <v>2</v>
-      </c>
-      <c r="D6" s="6">
-        <v>21</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="9">
-        <v>1400</v>
-      </c>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="7">
-        <v>1</v>
-      </c>
-      <c r="C7" s="8">
-        <v>3</v>
-      </c>
-      <c r="D7" s="6">
-        <v>1</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="9">
-        <v>1400</v>
-      </c>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="7">
-        <v>1</v>
-      </c>
-      <c r="C8" s="8">
-        <v>3</v>
-      </c>
-      <c r="D8" s="6">
-        <v>3</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="9">
-        <v>1400</v>
-      </c>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="7">
-        <v>1</v>
-      </c>
-      <c r="C9" s="8">
-        <v>3</v>
-      </c>
-      <c r="D9" s="6">
-        <v>13</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="9">
-        <v>1400</v>
-      </c>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="7">
-        <v>1</v>
-      </c>
-      <c r="C10" s="8">
-        <v>3</v>
-      </c>
-      <c r="D10" s="6">
-        <v>17</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="9">
-        <v>1400</v>
-      </c>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="7">
-        <v>1</v>
-      </c>
-      <c r="C11" s="8">
-        <v>3</v>
-      </c>
-      <c r="D11" s="6">
-        <v>19</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="9">
-        <v>1400</v>
-      </c>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="7">
-        <v>1</v>
-      </c>
-      <c r="C12" s="8">
-        <v>5</v>
-      </c>
-      <c r="D12" s="6">
-        <v>25</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="9">
-        <v>1400</v>
-      </c>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="7">
-        <v>2</v>
-      </c>
-      <c r="C13" s="8">
-        <v>1</v>
-      </c>
-      <c r="D13" s="6">
-        <v>17</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="9">
-        <v>1400</v>
-      </c>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="7">
-        <v>2</v>
-      </c>
-      <c r="C14" s="8">
-        <v>5</v>
-      </c>
-      <c r="D14" s="6">
-        <v>26</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="9">
-        <v>1400</v>
-      </c>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="7">
-        <v>3</v>
-      </c>
-      <c r="C15" s="8">
-        <v>1</v>
-      </c>
-      <c r="D15" s="6">
-        <v>9</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="9">
-        <v>1400</v>
-      </c>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="7">
-        <v>3</v>
-      </c>
-      <c r="C16" s="8">
-        <v>2</v>
-      </c>
-      <c r="D16" s="6">
-        <v>11</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="9">
-        <v>1400</v>
-      </c>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="7">
-        <v>3</v>
-      </c>
-      <c r="C17" s="8">
-        <v>6</v>
-      </c>
-      <c r="D17" s="6">
-        <v>7</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" s="9">
-        <v>1400</v>
-      </c>
-      <c r="G17" s="4"/>
+      <c r="F23" s="3">
+        <f>SUM(F21:F22)</f>
+        <v>18900</v>
+      </c>
+      <c r="G23" s="3"/>
     </row>
   </sheetData>
-  <sortState ref="B2:G17">
+  <sortState ref="A2:H17">
     <sortCondition ref="B2:B17"/>
     <sortCondition ref="C2:C17"/>
     <sortCondition ref="D2:D17"/>
   </sortState>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
@@ -894,7 +1109,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -907,7 +1122,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
